--- a/StructureDefinition-ext-R5-ManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-ext-R5-ManufacturedItemDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -530,7 +530,8 @@
     <t>Manufacturer of the item, one of several possible.</t>
   </si>
   <si>
-    <t>Element `ManufacturedItemDefinition.manufacturer` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ManufacturedItemDefinition.manufacturer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ManufacturedItemDefinition.manufacturer` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:manufacturer.id</t>
@@ -1183,7 +1184,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="121.96484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="206.625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-ManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-ext-R5-ManufacturedItemDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5156" uniqueCount="412">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -634,7 +634,7 @@
     <t>The country in which the marketing authorization has been granted shall be specified It should be specified using the ISO 3166 ‑ 1 alpha-2 code elements.</t>
   </si>
   <si>
-    <t>Element `MarketingStatus.country` is mapped to FHIR R4 element `MarketingStatus.country`.</t>
+    <t>Element `MarketingStatus.country` has is mapped to FHIR R4 element `MarketingStatus.country`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:marketingStatus.extension:country.id</t>
@@ -661,7 +661,7 @@
     <t>Where a Medicines Regulatory Agency has granted a marketing authorization for which specific provisions within a jurisdiction apply, the jurisdiction can be specified using an appropriate controlled terminology The controlled term and the controlled term identifier shall be specified.</t>
   </si>
   <si>
-    <t>Element `MarketingStatus.jurisdiction` is mapped to FHIR R4 element `MarketingStatus.jurisdiction`.</t>
+    <t>Element `MarketingStatus.jurisdiction` has is mapped to FHIR R4 element `MarketingStatus.jurisdiction`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:marketingStatus.extension:jurisdiction.id</t>
@@ -685,7 +685,7 @@
     <t>This attribute provides information on the status of the marketing of the medicinal product See ISO/TS 20443 for more information and examples.</t>
   </si>
   <si>
-    <t>Element `MarketingStatus.status` is mapped to FHIR R4 element `MarketingStatus.status`.</t>
+    <t>Element `MarketingStatus.status` has is mapped to FHIR R4 element `MarketingStatus.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:marketingStatus.extension:status.id</t>
@@ -712,7 +712,7 @@
     <t>The date when the Medicinal Product is placed on the market by the Marketing Authorization Holder (or where applicable, the manufacturer/distributor) in a country and/or jurisdiction shall be provided A complete date consisting of day, month and year shall be specified using the ISO 8601 date format NOTE “Placed on the market” refers to the release of the Medicinal Product into the distribution chain.</t>
   </si>
   <si>
-    <t>Element `MarketingStatus.dateRange` is mapped to FHIR R4 element `MarketingStatus.dateRange`.</t>
+    <t>Element `MarketingStatus.dateRange` has is mapped to FHIR R4 element `MarketingStatus.dateRange`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:marketingStatus.extension:dateRange.id</t>
@@ -737,7 +737,7 @@
     <t>restoreDate</t>
   </si>
   <si>
-    <t>Element `MarketingStatus.restoreDate` is mapped to FHIR R4 element `MarketingStatus.restoreDate`.</t>
+    <t>Element `MarketingStatus.restoreDate` has is mapped to FHIR R4 element `MarketingStatus.restoreDate`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:marketingStatus.extension:restoreDate.id</t>
@@ -814,6 +814,66 @@
     <t>Extension.extension:property.extension</t>
   </si>
   <si>
+    <t>Extension.extension:property.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>A code expressing the type of characteristic</t>
+  </si>
+  <si>
+    <t>A code expressing the type of characteristic.</t>
+  </si>
+  <si>
+    <t>Element `ManufacturedItemDefinition.property.type` is part of an existing definition because parent element `ManufacturedItemDefinition.property` requires a cross-version extension.
+Element `ManufacturedItemDefinition.property.type` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:property.extension:type.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:property.extension:type.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:property.extension:type.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:property.extension:type.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:property.extension:value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>A value for the characteristic</t>
+  </si>
+  <si>
+    <t>A value for the characteristic.</t>
+  </si>
+  <si>
+    <t>Element `ManufacturedItemDefinition.property.value[x]` is part of an existing definition because parent element `ManufacturedItemDefinition.property` requires a cross-version extension.
+Element `ManufacturedItemDefinition.property.value[x]` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:property.extension:value.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:property.extension:value.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:property.extension:value.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:property.extension:value.value[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+QuantitydatebooleanmarkdownAttachmentReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Binary|0.0.1-snapshot-3|Binary|4.0.1)</t>
+  </si>
+  <si>
     <t>Extension.extension:property.url</t>
   </si>
   <si>
@@ -839,6 +899,392 @@
   </si>
   <si>
     <t>Extension.extension:component.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:type</t>
+  </si>
+  <si>
+    <t>Defining type of the component e.g. shell, layer, ink</t>
+  </si>
+  <si>
+    <t>Defining type of the component e.g. shell, layer, ink.</t>
+  </si>
+  <si>
+    <t>Element `ManufacturedItemDefinition.component.type` is part of an existing definition because parent element `ManufacturedItemDefinition.component` requires a cross-version extension.
+Element `ManufacturedItemDefinition.component.type` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:type.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:type.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:type.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:type.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:function</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>The function of this component within the item e.g. delivers active ingredient, masks taste</t>
+  </si>
+  <si>
+    <t>The function of this component within the item e.g. delivers active ingredient, masks taste.</t>
+  </si>
+  <si>
+    <t>Element `ManufacturedItemDefinition.component.function` is part of an existing definition because parent element `ManufacturedItemDefinition.component` requires a cross-version extension.
+Element `ManufacturedItemDefinition.component.function` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:function.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:function.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:function.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:function.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:amount</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>The measurable amount of total quantity of all substances in the component, expressable in different ways (e.g. by mass or volume)</t>
+  </si>
+  <si>
+    <t>The measurable amount of total quantity of all substances in the component, expressable in different ways (e.g. by mass or volume).</t>
+  </si>
+  <si>
+    <t>Element `ManufacturedItemDefinition.component.amount` is part of an existing definition because parent element `ManufacturedItemDefinition.component` requires a cross-version extension.
+Element `ManufacturedItemDefinition.component.amount` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:amount.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:amount.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:amount.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:amount.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent</t>
+  </si>
+  <si>
+    <t>constituent</t>
+  </si>
+  <si>
+    <t>A reference to a constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient)</t>
+  </si>
+  <si>
+    <t>A reference to a constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient).</t>
+  </si>
+  <si>
+    <t>Element `ManufacturedItemDefinition.component.constituent` is part of an existing definition because parent element `ManufacturedItemDefinition.component` requires a cross-version extension.
+Element `ManufacturedItemDefinition.component.constituent` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:amount</t>
+  </si>
+  <si>
+    <t>The measurable amount of the substance, expressable in different ways (e.g. by mass or volume)</t>
+  </si>
+  <si>
+    <t>The measurable amount of the substance, expressable in different ways (e.g. by mass or volume).</t>
+  </si>
+  <si>
+    <t>Element `ManufacturedItemDefinition.component.constituent.amount` is part of an existing definition because parent element `ManufacturedItemDefinition.component.constituent` requires a cross-version extension.
+Element `ManufacturedItemDefinition.component.constituent.amount` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:amount.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:amount.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:amount.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:amount.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:location</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>The physical location of the constituent/ingredient within the component</t>
+  </si>
+  <si>
+    <t>The physical location of the constituent/ingredient within the component. Example – if the component is the bead in the capsule, then the location would be where the ingredient resides within the product part – intragranular, extra-granular, etc.</t>
+  </si>
+  <si>
+    <t>Element `ManufacturedItemDefinition.component.constituent.location` is part of an existing definition because parent element `ManufacturedItemDefinition.component.constituent` requires a cross-version extension.
+Element `ManufacturedItemDefinition.component.constituent.location` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:location.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:location.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:location.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:location.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:function</t>
+  </si>
+  <si>
+    <t>The function of this constituent within the component e.g. binder</t>
+  </si>
+  <si>
+    <t>The function of this constituent within the component e.g. binder.</t>
+  </si>
+  <si>
+    <t>Element `ManufacturedItemDefinition.component.constituent.function` is part of an existing definition because parent element `ManufacturedItemDefinition.component.constituent` requires a cross-version extension.
+Element `ManufacturedItemDefinition.component.constituent.function` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:function.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:function.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:function.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:function.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient</t>
+  </si>
+  <si>
+    <t>hasIngredient</t>
+  </si>
+  <si>
+    <t>The ingredient that is the constituent of the given component</t>
+  </si>
+  <si>
+    <t>The ingredient that is the constituent of the given component.</t>
+  </si>
+  <si>
+    <t>Element `ManufacturedItemDefinition.component.constituent.hasIngredient` is part of an existing definition because parent element `ManufacturedItemDefinition.component.constituent` requires a cross-version extension.
+Element `ManufacturedItemDefinition.component.constituent.hasIngredient` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:_datatype</t>
+  </si>
+  <si>
+    <t>DataType slice for a FHIR R5 `CodeableReference` value</t>
+  </si>
+  <si>
+    <t>Slice to indicate the presence of a R5 `CodeableReference` in FHIR R4</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:_datatype.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:_datatype.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:_datatype.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:_datatype.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Must be: CodeableReference</t>
+  </si>
+  <si>
+    <t>CodeableReference</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:concept</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>Reference to a concept (by class)</t>
+  </si>
+  <si>
+    <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
+  </si>
+  <si>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:concept.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:concept.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:concept.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:concept.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:reference</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>Reference to a resource (by instance)</t>
+  </si>
+  <si>
+    <t>A reference to a resource the provides exact details about the information being referenced.</t>
+  </si>
+  <si>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:reference.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:reference.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:reference.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:reference.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Ingredient|0.0.1-snapshot-3|Basic|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.extension:hasIngredient.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:constituent.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:property</t>
+  </si>
+  <si>
+    <t>General characteristics of this component</t>
+  </si>
+  <si>
+    <t>General characteristics of this component.</t>
+  </si>
+  <si>
+    <t>Element `ManufacturedItemDefinition.component.property` is part of an existing definition because parent element `ManufacturedItemDefinition.component` requires a cross-version extension.
+Element `ManufacturedItemDefinition.component.property` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:property.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:property.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:property.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ManufacturedItemDefinition.property</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:property.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:component</t>
+  </si>
+  <si>
+    <t>A component that this component contains or is made from</t>
+  </si>
+  <si>
+    <t>A component that this component contains or is made from.</t>
+  </si>
+  <si>
+    <t>Element `ManufacturedItemDefinition.component.component` is part of an existing definition because parent element `ManufacturedItemDefinition.component` requires a cross-version extension.
+Element `ManufacturedItemDefinition.component.component` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:component.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:component.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:component.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ManufacturedItemDefinition.component</t>
+  </si>
+  <si>
+    <t>Extension.extension:component.extension:component.value[x]</t>
   </si>
   <si>
     <t>Extension.extension:component.url</t>
@@ -1161,7 +1607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK81"/>
+  <dimension ref="A1:AK156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1170,8 +1616,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.4921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="90.03125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.3046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="20.52734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="11.10546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
@@ -8650,11 +9096,11 @@
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -8672,14 +9118,12 @@
         <v>94</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -8743,7 +9187,7 @@
         <v>84</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
@@ -8751,9 +9195,11 @@
         <v>258</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
       </c>
@@ -8774,24 +9220,24 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -8833,30 +9279,30 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -8867,7 +9313,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -8879,13 +9325,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -8936,7 +9382,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -8948,24 +9394,22 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -8987,15 +9431,15 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
       </c>
@@ -9031,16 +9475,16 @@
         <v>77</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>99</v>
@@ -9058,7 +9502,7 @@
         <v>84</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76">
@@ -9066,7 +9510,7 @@
         <v>265</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9074,7 +9518,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>86</v>
@@ -9089,22 +9533,24 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9146,10 +9592,10 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>86</v>
@@ -9161,7 +9607,7 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77">
@@ -9169,18 +9615,18 @@
         <v>266</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
@@ -9192,17 +9638,15 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -9239,34 +9683,34 @@
         <v>77</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78">
@@ -9274,15 +9718,17 @@
         <v>267</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>86</v>
@@ -9297,24 +9743,24 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>117</v>
+        <v>269</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9356,30 +9802,30 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9390,7 +9836,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -9402,13 +9848,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9459,7 +9905,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -9471,29 +9917,29 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>120</v>
+        <v>273</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
@@ -9505,16 +9951,16 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -9522,7 +9968,7 @@
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" t="s" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>77</v>
@@ -9552,42 +9998,42 @@
         <v>77</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9595,10 +10041,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -9610,22 +10056,24 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -9667,21 +10115,7856 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF82" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AG81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AK81" t="s" s="2">
+      <c r="AK82" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="D111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="P116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O119" s="2"/>
+      <c r="P119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="P121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O126" s="2"/>
+      <c r="P126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O127" s="2"/>
+      <c r="P127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q127" s="2"/>
+      <c r="R127" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O128" s="2"/>
+      <c r="P128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q128" s="2"/>
+      <c r="R128" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="D129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="P129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q129" s="2"/>
+      <c r="R129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q130" s="2"/>
+      <c r="R130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O131" s="2"/>
+      <c r="P131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q131" s="2"/>
+      <c r="R131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O132" s="2"/>
+      <c r="P132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q132" s="2"/>
+      <c r="R132" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q133" s="2"/>
+      <c r="R133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="D134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N134" s="2"/>
+      <c r="O134" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="P134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q134" s="2"/>
+      <c r="R134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q135" s="2"/>
+      <c r="R135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O136" s="2"/>
+      <c r="P136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q136" s="2"/>
+      <c r="R136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O137" s="2"/>
+      <c r="P137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q137" s="2"/>
+      <c r="R137" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+      <c r="P138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q138" s="2"/>
+      <c r="R138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O139" s="2"/>
+      <c r="P139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q139" s="2"/>
+      <c r="R139" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+      <c r="P140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q140" s="2"/>
+      <c r="R140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O141" s="2"/>
+      <c r="P141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q141" s="2"/>
+      <c r="R141" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q142" s="2"/>
+      <c r="R142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C143" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="D143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="P143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q143" s="2"/>
+      <c r="R143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+      <c r="P144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q144" s="2"/>
+      <c r="R144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O145" s="2"/>
+      <c r="P145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q145" s="2"/>
+      <c r="R145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O146" s="2"/>
+      <c r="P146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q146" s="2"/>
+      <c r="R146" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+      <c r="P147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q147" s="2"/>
+      <c r="R147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C148" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="D148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N148" s="2"/>
+      <c r="O148" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="P148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q148" s="2"/>
+      <c r="R148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
+      <c r="P149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q149" s="2"/>
+      <c r="R149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O150" s="2"/>
+      <c r="P150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q150" s="2"/>
+      <c r="R150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O151" s="2"/>
+      <c r="P151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q151" s="2"/>
+      <c r="R151" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N152" s="2"/>
+      <c r="O152" s="2"/>
+      <c r="P152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q152" s="2"/>
+      <c r="R152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF152" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O153" s="2"/>
+      <c r="P153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q153" s="2"/>
+      <c r="R153" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+      <c r="P154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q154" s="2"/>
+      <c r="R154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O155" s="2"/>
+      <c r="P155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q155" s="2"/>
+      <c r="R155" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+      <c r="P156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q156" s="2"/>
+      <c r="R156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AK156" t="s" s="2">
         <v>121</v>
       </c>
     </row>

--- a/StructureDefinition-ext-R5-ManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-ext-R5-ManufacturedItemDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5156" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5156" uniqueCount="409">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -408,15 +408,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-publication-status-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -515,7 +506,7 @@
     <t>The presentation type in which an administrable medicinal product is given to a patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-unit-of-presentation-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-unit-of-presentation-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:manufacturer</t>
@@ -546,7 +537,7 @@
     <t>Extension.extension:manufacturer.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -871,7 +862,7 @@
   </si>
   <si>
     <t>CodeableConcept
-QuantitydatebooleanmarkdownAttachmentReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Binary|0.0.1-snapshot-3|Binary|4.0.1)</t>
+QuantitydatebooleanmarkdownAttachmentReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Binary|Binary)</t>
   </si>
   <si>
     <t>Extension.extension:property.url</t>
@@ -1171,8 +1162,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:concept.id</t>
@@ -1199,8 +1189,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:reference.id</t>
@@ -1215,7 +1204,7 @@
     <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Ingredient|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Ingredient|Basic)
 </t>
   </si>
   <si>
@@ -1641,7 +1630,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.1484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.65625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2561,43 +2550,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -2605,13 +2594,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2636,14 +2625,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2712,7 +2701,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2815,7 +2804,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2920,7 +2909,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2963,7 +2952,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3025,7 +3014,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -3054,10 +3043,10 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3108,7 +3097,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3120,7 +3109,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -3128,13 +3117,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3159,14 +3148,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3235,7 +3224,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -3338,7 +3327,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -3443,7 +3432,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -3486,7 +3475,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3548,7 +3537,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -3574,13 +3563,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3631,7 +3620,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3643,7 +3632,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>121</v>
@@ -3651,13 +3640,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3682,14 +3671,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3758,7 +3747,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3861,7 +3850,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3966,7 +3955,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -4009,7 +3998,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4071,7 +4060,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -4097,13 +4086,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4130,13 +4119,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4154,7 +4143,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4166,7 +4155,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>121</v>
@@ -4174,13 +4163,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4205,14 +4194,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4281,7 +4270,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -4384,7 +4373,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -4489,7 +4478,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -4532,7 +4521,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4594,7 +4583,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -4620,13 +4609,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4677,7 +4666,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4689,7 +4678,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>121</v>
@@ -4697,13 +4686,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4728,14 +4717,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4804,7 +4793,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -4907,7 +4896,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -5010,13 +4999,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -5041,10 +5030,10 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5115,10 +5104,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5218,10 +5207,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5323,10 +5312,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5366,7 +5355,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5428,10 +5417,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5457,13 +5446,13 @@
         <v>87</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5471,7 +5460,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>77</v>
@@ -5513,7 +5502,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5525,7 +5514,7 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>121</v>
@@ -5533,13 +5522,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5564,14 +5553,14 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5640,10 +5629,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5743,10 +5732,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5848,10 +5837,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5891,7 +5880,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5953,10 +5942,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5979,13 +5968,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6036,7 +6025,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6048,7 +6037,7 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>121</v>
@@ -6056,13 +6045,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6087,14 +6076,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6163,10 +6152,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6266,10 +6255,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6371,10 +6360,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6414,7 +6403,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6476,10 +6465,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6502,13 +6491,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6559,7 +6548,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6571,7 +6560,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>121</v>
@@ -6579,7 +6568,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>109</v>
@@ -6610,14 +6599,14 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6686,10 +6675,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6789,10 +6778,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6894,10 +6883,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6999,10 +6988,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7025,13 +7014,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7082,7 +7071,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7094,7 +7083,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>121</v>
@@ -7102,13 +7091,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -7133,14 +7122,14 @@
         <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7209,10 +7198,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7312,10 +7301,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7417,10 +7406,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7460,7 +7449,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7522,10 +7511,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7548,13 +7537,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7605,7 +7594,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7617,7 +7606,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>121</v>
@@ -7625,13 +7614,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7656,14 +7645,14 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7732,10 +7721,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7835,10 +7824,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7940,10 +7929,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7983,7 +7972,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -8045,10 +8034,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8071,13 +8060,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8128,7 +8117,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8140,7 +8129,7 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>121</v>
@@ -8148,7 +8137,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>115</v>
@@ -8191,7 +8180,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8253,7 +8242,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -8279,13 +8268,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8336,7 +8325,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8348,7 +8337,7 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>121</v>
@@ -8356,13 +8345,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8387,14 +8376,14 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8463,7 +8452,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>107</v>
@@ -8566,7 +8555,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>109</v>
@@ -8671,7 +8660,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>115</v>
@@ -8714,7 +8703,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8776,7 +8765,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>123</v>
@@ -8802,13 +8791,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8859,7 +8848,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -8871,7 +8860,7 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>121</v>
@@ -8879,13 +8868,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8910,14 +8899,14 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8986,7 +8975,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>107</v>
@@ -9089,7 +9078,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>109</v>
@@ -9192,13 +9181,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9223,14 +9212,14 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9299,10 +9288,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9402,10 +9391,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9507,10 +9496,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9550,7 +9539,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9612,10 +9601,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9638,13 +9627,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9695,7 +9684,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -9707,7 +9696,7 @@
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>121</v>
@@ -9715,13 +9704,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9746,14 +9735,14 @@
         <v>94</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9822,10 +9811,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9925,10 +9914,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10030,10 +10019,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10073,7 +10062,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10135,10 +10124,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10161,13 +10150,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10218,7 +10207,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -10230,7 +10219,7 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>121</v>
@@ -10238,7 +10227,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>115</v>
@@ -10281,7 +10270,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10343,7 +10332,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>123</v>
@@ -10369,13 +10358,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10426,7 +10415,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -10438,7 +10427,7 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>121</v>
@@ -10446,13 +10435,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10477,14 +10466,14 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10553,7 +10542,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>107</v>
@@ -10656,7 +10645,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>109</v>
@@ -10759,13 +10748,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10790,14 +10779,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10866,10 +10855,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10969,10 +10958,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11074,10 +11063,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11117,7 +11106,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11179,10 +11168,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11205,13 +11194,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11262,7 +11251,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11274,7 +11263,7 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>121</v>
@@ -11282,13 +11271,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11313,14 +11302,14 @@
         <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11389,10 +11378,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11492,10 +11481,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11597,10 +11586,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11640,7 +11629,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11702,10 +11691,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11728,13 +11717,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11785,7 +11774,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -11797,7 +11786,7 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>121</v>
@@ -11805,13 +11794,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11836,14 +11825,14 @@
         <v>94</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11912,10 +11901,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12015,10 +12004,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12120,10 +12109,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12163,7 +12152,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12225,10 +12214,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12251,13 +12240,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12308,7 +12297,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -12320,7 +12309,7 @@
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>121</v>
@@ -12328,13 +12317,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12359,14 +12348,14 @@
         <v>94</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12435,10 +12424,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12538,10 +12527,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12641,13 +12630,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>77</v>
@@ -12672,14 +12661,14 @@
         <v>94</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -12748,10 +12737,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12851,10 +12840,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -12956,10 +12945,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -12999,7 +12988,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>77</v>
@@ -13061,10 +13050,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13087,13 +13076,13 @@
         <v>77</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -13144,7 +13133,7 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -13156,7 +13145,7 @@
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>121</v>
@@ -13164,13 +13153,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>77</v>
@@ -13195,14 +13184,14 @@
         <v>94</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
@@ -13271,10 +13260,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13374,10 +13363,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -13479,10 +13468,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13522,7 +13511,7 @@
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="S114" t="s" s="2">
         <v>77</v>
@@ -13584,10 +13573,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13610,13 +13599,13 @@
         <v>77</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -13667,7 +13656,7 @@
         <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -13679,7 +13668,7 @@
         <v>77</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>121</v>
@@ -13687,13 +13676,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>77</v>
@@ -13718,14 +13707,14 @@
         <v>94</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>77</v>
@@ -13794,10 +13783,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13897,10 +13886,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14002,10 +13991,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14045,7 +14034,7 @@
       </c>
       <c r="Q119" s="2"/>
       <c r="R119" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S119" t="s" s="2">
         <v>77</v>
@@ -14107,10 +14096,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14133,13 +14122,13 @@
         <v>77</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -14190,7 +14179,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -14202,7 +14191,7 @@
         <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>121</v>
@@ -14210,13 +14199,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>77</v>
@@ -14241,14 +14230,14 @@
         <v>94</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>77</v>
@@ -14317,10 +14306,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14420,10 +14409,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14523,13 +14512,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D124" t="s" s="2">
         <v>77</v>
@@ -14554,10 +14543,10 @@
         <v>94</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -14628,10 +14617,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14731,10 +14720,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -14836,10 +14825,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -14879,7 +14868,7 @@
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="S127" t="s" s="2">
         <v>77</v>
@@ -14941,10 +14930,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -14970,13 +14959,13 @@
         <v>87</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -14984,7 +14973,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>77</v>
@@ -15026,7 +15015,7 @@
         <v>77</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>78</v>
@@ -15038,7 +15027,7 @@
         <v>77</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>121</v>
@@ -15046,13 +15035,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>77</v>
@@ -15077,14 +15066,14 @@
         <v>94</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>77</v>
@@ -15153,10 +15142,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15256,10 +15245,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15361,10 +15350,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15404,7 +15393,7 @@
       </c>
       <c r="Q132" s="2"/>
       <c r="R132" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>77</v>
@@ -15466,10 +15455,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15492,13 +15481,13 @@
         <v>77</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -15549,7 +15538,7 @@
         <v>77</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>78</v>
@@ -15561,7 +15550,7 @@
         <v>77</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>121</v>
@@ -15569,13 +15558,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D134" t="s" s="2">
         <v>77</v>
@@ -15600,14 +15589,14 @@
         <v>94</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>77</v>
@@ -15676,10 +15665,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15779,10 +15768,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -15884,10 +15873,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -15927,7 +15916,7 @@
       </c>
       <c r="Q137" s="2"/>
       <c r="R137" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="S137" t="s" s="2">
         <v>77</v>
@@ -15989,10 +15978,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16015,13 +16004,13 @@
         <v>77</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -16072,7 +16061,7 @@
         <v>77</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>78</v>
@@ -16084,7 +16073,7 @@
         <v>77</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>121</v>
@@ -16092,10 +16081,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16135,7 +16124,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16197,10 +16186,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16223,13 +16212,13 @@
         <v>77</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16280,7 +16269,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>78</v>
@@ -16292,7 +16281,7 @@
         <v>77</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>121</v>
@@ -16300,10 +16289,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16343,7 +16332,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16405,10 +16394,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16431,13 +16420,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16488,7 +16477,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -16500,7 +16489,7 @@
         <v>77</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>121</v>
@@ -16508,13 +16497,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>77</v>
@@ -16539,14 +16528,14 @@
         <v>94</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -16615,10 +16604,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16718,10 +16707,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -16823,10 +16812,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -16866,7 +16855,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -16928,10 +16917,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -16954,13 +16943,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17011,7 +17000,7 @@
         <v>77</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>78</v>
@@ -17023,7 +17012,7 @@
         <v>77</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>121</v>
@@ -17031,13 +17020,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17062,14 +17051,14 @@
         <v>94</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17138,10 +17127,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17241,10 +17230,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17346,10 +17335,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17389,7 +17378,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17451,10 +17440,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17477,13 +17466,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -17534,7 +17523,7 @@
         <v>77</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>78</v>
@@ -17546,7 +17535,7 @@
         <v>77</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>121</v>
@@ -17554,7 +17543,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>115</v>
@@ -17597,7 +17586,7 @@
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>77</v>
@@ -17659,7 +17648,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>123</v>
@@ -17685,13 +17674,13 @@
         <v>77</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -17742,7 +17731,7 @@
         <v>77</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>78</v>
@@ -17754,7 +17743,7 @@
         <v>77</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>121</v>
@@ -17867,10 +17856,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -17893,13 +17882,13 @@
         <v>77</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -17950,7 +17939,7 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>78</v>
@@ -17962,7 +17951,7 @@
         <v>77</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>121</v>

--- a/StructureDefinition-ext-R5-ManufacturedItemDefinition.xlsx
+++ b/StructureDefinition-ext-R5-ManufacturedItemDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5156" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5156" uniqueCount="414">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -408,6 +408,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -473,6 +482,15 @@
 </t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Dose form for a medication, in the form suitable for administering to the patient, after mixing, where necessary.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-manufactured-dose-form-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:unitOfPresentation</t>
   </si>
   <si>
@@ -500,13 +518,10 @@
     <t>Extension.extension:unitOfPresentation.value[x]</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>The presentation type in which an administrable medicinal product is given to a patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-unit-of-presentation-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-unit-of-presentation-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:manufacturer</t>
@@ -537,7 +552,7 @@
     <t>Extension.extension:manufacturer.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -625,7 +640,7 @@
     <t>The country in which the marketing authorization has been granted shall be specified It should be specified using the ISO 3166 ‑ 1 alpha-2 code elements.</t>
   </si>
   <si>
-    <t>Element `MarketingStatus.country` has is mapped to FHIR R4 element `MarketingStatus.country`, but has no comparisons.</t>
+    <t>Element `MarketingStatus.country` is mapped to FHIR R4 element `MarketingStatus.country` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:marketingStatus.extension:country.id</t>
@@ -652,7 +667,7 @@
     <t>Where a Medicines Regulatory Agency has granted a marketing authorization for which specific provisions within a jurisdiction apply, the jurisdiction can be specified using an appropriate controlled terminology The controlled term and the controlled term identifier shall be specified.</t>
   </si>
   <si>
-    <t>Element `MarketingStatus.jurisdiction` has is mapped to FHIR R4 element `MarketingStatus.jurisdiction`, but has no comparisons.</t>
+    <t>Element `MarketingStatus.jurisdiction` is mapped to FHIR R4 element `MarketingStatus.jurisdiction` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:marketingStatus.extension:jurisdiction.id</t>
@@ -676,7 +691,7 @@
     <t>This attribute provides information on the status of the marketing of the medicinal product See ISO/TS 20443 for more information and examples.</t>
   </si>
   <si>
-    <t>Element `MarketingStatus.status` has is mapped to FHIR R4 element `MarketingStatus.status`, but has no comparisons.</t>
+    <t>Element `MarketingStatus.status` is mapped to FHIR R4 element `MarketingStatus.status` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:marketingStatus.extension:status.id</t>
@@ -703,7 +718,7 @@
     <t>The date when the Medicinal Product is placed on the market by the Marketing Authorization Holder (or where applicable, the manufacturer/distributor) in a country and/or jurisdiction shall be provided A complete date consisting of day, month and year shall be specified using the ISO 8601 date format NOTE “Placed on the market” refers to the release of the Medicinal Product into the distribution chain.</t>
   </si>
   <si>
-    <t>Element `MarketingStatus.dateRange` has is mapped to FHIR R4 element `MarketingStatus.dateRange`, but has no comparisons.</t>
+    <t>Element `MarketingStatus.dateRange` is mapped to FHIR R4 element `MarketingStatus.dateRange` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:marketingStatus.extension:dateRange.id</t>
@@ -728,7 +743,7 @@
     <t>restoreDate</t>
   </si>
   <si>
-    <t>Element `MarketingStatus.restoreDate` has is mapped to FHIR R4 element `MarketingStatus.restoreDate`, but has no comparisons.</t>
+    <t>Element `MarketingStatus.restoreDate` is mapped to FHIR R4 element `MarketingStatus.restoreDate` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:marketingStatus.extension:restoreDate.id</t>
@@ -817,8 +832,7 @@
     <t>A code expressing the type of characteristic.</t>
   </si>
   <si>
-    <t>Element `ManufacturedItemDefinition.property.type` is part of an existing definition because parent element `ManufacturedItemDefinition.property` requires a cross-version extension.
-Element `ManufacturedItemDefinition.property.type` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+    <t>Element `ManufacturedItemDefinition.property.type` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:property.extension:type.id</t>
@@ -845,8 +859,7 @@
     <t>A value for the characteristic.</t>
   </si>
   <si>
-    <t>Element `ManufacturedItemDefinition.property.value[x]` is part of an existing definition because parent element `ManufacturedItemDefinition.property` requires a cross-version extension.
-Element `ManufacturedItemDefinition.property.value[x]` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+    <t>Element `ManufacturedItemDefinition.property.value[x]` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:property.extension:value.id</t>
@@ -862,7 +875,7 @@
   </si>
   <si>
     <t>CodeableConcept
-QuantitydatebooleanmarkdownAttachmentReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Binary|Binary)</t>
+QuantitydatebooleanmarkdownAttachmentReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Binary|0.0.1-snapshot-3|Binary|4.0.1)</t>
   </si>
   <si>
     <t>Extension.extension:property.url</t>
@@ -901,8 +914,7 @@
     <t>Defining type of the component e.g. shell, layer, ink.</t>
   </si>
   <si>
-    <t>Element `ManufacturedItemDefinition.component.type` is part of an existing definition because parent element `ManufacturedItemDefinition.component` requires a cross-version extension.
-Element `ManufacturedItemDefinition.component.type` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+    <t>Element `ManufacturedItemDefinition.component.type` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:component.extension:type.id</t>
@@ -929,8 +941,7 @@
     <t>The function of this component within the item e.g. delivers active ingredient, masks taste.</t>
   </si>
   <si>
-    <t>Element `ManufacturedItemDefinition.component.function` is part of an existing definition because parent element `ManufacturedItemDefinition.component` requires a cross-version extension.
-Element `ManufacturedItemDefinition.component.function` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+    <t>Element `ManufacturedItemDefinition.component.function` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:component.extension:function.id</t>
@@ -957,8 +968,7 @@
     <t>The measurable amount of total quantity of all substances in the component, expressable in different ways (e.g. by mass or volume).</t>
   </si>
   <si>
-    <t>Element `ManufacturedItemDefinition.component.amount` is part of an existing definition because parent element `ManufacturedItemDefinition.component` requires a cross-version extension.
-Element `ManufacturedItemDefinition.component.amount` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+    <t>Element `ManufacturedItemDefinition.component.amount` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:component.extension:amount.id</t>
@@ -989,8 +999,7 @@
     <t>A reference to a constituent of the manufactured item as a whole, linked here so that its component location within the item can be indicated. This not where the item's ingredient are primarily stated (for which see Ingredient.for or ManufacturedItemDefinition.ingredient).</t>
   </si>
   <si>
-    <t>Element `ManufacturedItemDefinition.component.constituent` is part of an existing definition because parent element `ManufacturedItemDefinition.component` requires a cross-version extension.
-Element `ManufacturedItemDefinition.component.constituent` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+    <t>Element `ManufacturedItemDefinition.component.constituent` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:component.extension:constituent.id</t>
@@ -1008,8 +1017,7 @@
     <t>The measurable amount of the substance, expressable in different ways (e.g. by mass or volume).</t>
   </si>
   <si>
-    <t>Element `ManufacturedItemDefinition.component.constituent.amount` is part of an existing definition because parent element `ManufacturedItemDefinition.component.constituent` requires a cross-version extension.
-Element `ManufacturedItemDefinition.component.constituent.amount` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+    <t>Element `ManufacturedItemDefinition.component.constituent.amount` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:component.extension:constituent.extension:amount.id</t>
@@ -1048,8 +1056,7 @@
     <t>The physical location of the constituent/ingredient within the component. Example – if the component is the bead in the capsule, then the location would be where the ingredient resides within the product part – intragranular, extra-granular, etc.</t>
   </si>
   <si>
-    <t>Element `ManufacturedItemDefinition.component.constituent.location` is part of an existing definition because parent element `ManufacturedItemDefinition.component.constituent` requires a cross-version extension.
-Element `ManufacturedItemDefinition.component.constituent.location` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+    <t>Element `ManufacturedItemDefinition.component.constituent.location` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:component.extension:constituent.extension:location.id</t>
@@ -1073,8 +1080,7 @@
     <t>The function of this constituent within the component e.g. binder.</t>
   </si>
   <si>
-    <t>Element `ManufacturedItemDefinition.component.constituent.function` is part of an existing definition because parent element `ManufacturedItemDefinition.component.constituent` requires a cross-version extension.
-Element `ManufacturedItemDefinition.component.constituent.function` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+    <t>Element `ManufacturedItemDefinition.component.constituent.function` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:component.extension:constituent.extension:function.id</t>
@@ -1101,8 +1107,7 @@
     <t>The ingredient that is the constituent of the given component.</t>
   </si>
   <si>
-    <t>Element `ManufacturedItemDefinition.component.constituent.hasIngredient` is part of an existing definition because parent element `ManufacturedItemDefinition.component.constituent` requires a cross-version extension.
-Element `ManufacturedItemDefinition.component.constituent.hasIngredient` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+    <t>Element `ManufacturedItemDefinition.component.constituent.hasIngredient` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:component.extension:constituent.extension:hasIngredient.id</t>
@@ -1162,7 +1167,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:concept.id</t>
@@ -1189,7 +1194,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:reference.id</t>
@@ -1204,7 +1209,7 @@
     <t>Extension.extension:component.extension:constituent.extension:hasIngredient.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Ingredient|Basic)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Ingredient|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
   <si>
@@ -1229,8 +1234,7 @@
     <t>General characteristics of this component.</t>
   </si>
   <si>
-    <t>Element `ManufacturedItemDefinition.component.property` is part of an existing definition because parent element `ManufacturedItemDefinition.component` requires a cross-version extension.
-Element `ManufacturedItemDefinition.component.property` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+    <t>Element `ManufacturedItemDefinition.component.property` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:component.extension:property.id</t>
@@ -1257,8 +1261,7 @@
     <t>A component that this component contains or is made from.</t>
   </si>
   <si>
-    <t>Element `ManufacturedItemDefinition.component.component` is part of an existing definition because parent element `ManufacturedItemDefinition.component` requires a cross-version extension.
-Element `ManufacturedItemDefinition.component.component` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
+    <t>Element `ManufacturedItemDefinition.component.component` is not mapped to FHIR R4, since FHIR R5 `ManufacturedItemDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:component.extension:component.id</t>
@@ -1629,8 +1632,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.65625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="90.796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.0625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2550,13 +2553,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -2574,7 +2577,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2586,7 +2589,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -2594,13 +2597,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2625,14 +2628,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2701,7 +2704,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2804,7 +2807,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2909,7 +2912,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2952,7 +2955,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -3043,10 +3046,10 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3097,7 +3100,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3109,7 +3112,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -3117,13 +3120,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3148,14 +3151,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3224,7 +3227,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -3327,7 +3330,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -3432,7 +3435,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -3475,7 +3478,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3537,7 +3540,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -3563,13 +3566,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3596,13 +3599,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3620,7 +3623,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3632,7 +3635,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>121</v>
@@ -3640,13 +3643,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3671,14 +3674,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3747,7 +3750,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3850,7 +3853,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3955,7 +3958,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3998,7 +4001,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4060,7 +4063,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -4086,13 +4089,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4119,13 +4122,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4143,7 +4146,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4155,7 +4158,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>121</v>
@@ -4163,13 +4166,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4194,14 +4197,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4270,7 +4273,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -4373,7 +4376,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -4521,7 +4524,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4583,7 +4586,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -4609,13 +4612,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4666,7 +4669,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4678,7 +4681,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>121</v>
@@ -4686,13 +4689,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4717,14 +4720,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4793,7 +4796,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -4896,7 +4899,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -4999,13 +5002,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -5030,10 +5033,10 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5104,10 +5107,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5207,10 +5210,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5312,10 +5315,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5355,7 +5358,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5417,10 +5420,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5446,13 +5449,13 @@
         <v>87</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5460,7 +5463,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>77</v>
@@ -5502,7 +5505,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5514,7 +5517,7 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>121</v>
@@ -5522,13 +5525,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5553,14 +5556,14 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5629,10 +5632,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5732,10 +5735,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5837,10 +5840,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5880,7 +5883,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5942,10 +5945,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5968,13 +5971,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6025,7 +6028,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6037,7 +6040,7 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>121</v>
@@ -6045,13 +6048,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6076,14 +6079,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6152,10 +6155,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6255,10 +6258,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6360,10 +6363,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6403,7 +6406,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6465,10 +6468,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6491,13 +6494,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6548,7 +6551,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6560,7 +6563,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>121</v>
@@ -6568,7 +6571,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>109</v>
@@ -6599,14 +6602,14 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6675,10 +6678,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6778,10 +6781,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6883,10 +6886,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6988,10 +6991,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7014,13 +7017,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7071,7 +7074,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7083,7 +7086,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>121</v>
@@ -7091,13 +7094,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -7122,14 +7125,14 @@
         <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7198,10 +7201,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7301,10 +7304,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7406,10 +7409,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7449,7 +7452,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7511,10 +7514,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7537,13 +7540,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7594,7 +7597,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7606,7 +7609,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>121</v>
@@ -7614,13 +7617,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7645,14 +7648,14 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7721,10 +7724,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7824,10 +7827,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7929,10 +7932,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7972,7 +7975,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -8034,10 +8037,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8060,13 +8063,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8117,7 +8120,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8129,7 +8132,7 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>121</v>
@@ -8137,7 +8140,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>115</v>
@@ -8180,7 +8183,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8242,7 +8245,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -8268,13 +8271,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8325,7 +8328,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8337,7 +8340,7 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>121</v>
@@ -8345,13 +8348,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8376,14 +8379,14 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8452,7 +8455,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>107</v>
@@ -8555,7 +8558,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>109</v>
@@ -8660,7 +8663,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>115</v>
@@ -8703,7 +8706,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8765,7 +8768,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>123</v>
@@ -8791,13 +8794,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8848,7 +8851,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -8860,7 +8863,7 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>121</v>
@@ -8868,13 +8871,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8899,14 +8902,14 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8975,7 +8978,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>107</v>
@@ -9078,7 +9081,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>109</v>
@@ -9181,13 +9184,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9212,14 +9215,14 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9288,10 +9291,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9391,10 +9394,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9496,10 +9499,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9539,7 +9542,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9601,10 +9604,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9627,13 +9630,13 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9684,7 +9687,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -9696,7 +9699,7 @@
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>121</v>
@@ -9704,13 +9707,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9735,14 +9738,14 @@
         <v>94</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9811,10 +9814,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9914,10 +9917,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10019,10 +10022,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10062,7 +10065,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10124,10 +10127,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10150,13 +10153,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10207,7 +10210,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -10219,7 +10222,7 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>121</v>
@@ -10227,7 +10230,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>115</v>
@@ -10270,7 +10273,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10332,7 +10335,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>123</v>
@@ -10358,13 +10361,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10415,7 +10418,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -10427,7 +10430,7 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>121</v>
@@ -10435,13 +10438,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10466,14 +10469,14 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10542,7 +10545,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>107</v>
@@ -10645,7 +10648,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>109</v>
@@ -10748,13 +10751,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10779,14 +10782,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10855,10 +10858,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10958,10 +10961,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11063,10 +11066,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11106,7 +11109,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11168,10 +11171,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11194,13 +11197,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11251,7 +11254,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11263,7 +11266,7 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>121</v>
@@ -11271,13 +11274,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11302,14 +11305,14 @@
         <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11378,10 +11381,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11481,10 +11484,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11586,10 +11589,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11629,7 +11632,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11691,10 +11694,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11717,13 +11720,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11774,7 +11777,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -11786,7 +11789,7 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>121</v>
@@ -11794,13 +11797,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11825,14 +11828,14 @@
         <v>94</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11901,10 +11904,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12004,10 +12007,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12109,10 +12112,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12152,7 +12155,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12214,10 +12217,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12240,13 +12243,13 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12297,7 +12300,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -12309,7 +12312,7 @@
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>121</v>
@@ -12317,13 +12320,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12348,14 +12351,14 @@
         <v>94</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12424,10 +12427,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12527,10 +12530,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12630,13 +12633,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>77</v>
@@ -12661,14 +12664,14 @@
         <v>94</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>77</v>
@@ -12737,10 +12740,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12840,10 +12843,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -12945,10 +12948,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -12988,7 +12991,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>77</v>
@@ -13050,10 +13053,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13076,13 +13079,13 @@
         <v>77</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -13133,7 +13136,7 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -13145,7 +13148,7 @@
         <v>77</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>121</v>
@@ -13153,13 +13156,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>77</v>
@@ -13184,14 +13187,14 @@
         <v>94</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
@@ -13260,10 +13263,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13363,10 +13366,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -13468,10 +13471,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13511,7 +13514,7 @@
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="S114" t="s" s="2">
         <v>77</v>
@@ -13573,10 +13576,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13599,13 +13602,13 @@
         <v>77</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -13656,7 +13659,7 @@
         <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -13668,7 +13671,7 @@
         <v>77</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>121</v>
@@ -13676,13 +13679,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>77</v>
@@ -13707,14 +13710,14 @@
         <v>94</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>77</v>
@@ -13783,10 +13786,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13886,10 +13889,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -13991,10 +13994,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14034,7 +14037,7 @@
       </c>
       <c r="Q119" s="2"/>
       <c r="R119" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="S119" t="s" s="2">
         <v>77</v>
@@ -14096,10 +14099,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14122,13 +14125,13 @@
         <v>77</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -14179,7 +14182,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -14191,7 +14194,7 @@
         <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>121</v>
@@ -14199,13 +14202,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>77</v>
@@ -14230,14 +14233,14 @@
         <v>94</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>77</v>
@@ -14306,10 +14309,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14409,10 +14412,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -14512,13 +14515,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D124" t="s" s="2">
         <v>77</v>
@@ -14543,10 +14546,10 @@
         <v>94</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -14617,10 +14620,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -14720,10 +14723,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -14825,10 +14828,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -14868,7 +14871,7 @@
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="S127" t="s" s="2">
         <v>77</v>
@@ -14930,10 +14933,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -14959,13 +14962,13 @@
         <v>87</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -14973,7 +14976,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>77</v>
@@ -15015,7 +15018,7 @@
         <v>77</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>78</v>
@@ -15027,7 +15030,7 @@
         <v>77</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>121</v>
@@ -15035,13 +15038,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>77</v>
@@ -15066,14 +15069,14 @@
         <v>94</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>77</v>
@@ -15142,10 +15145,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15245,10 +15248,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15350,10 +15353,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15393,7 +15396,7 @@
       </c>
       <c r="Q132" s="2"/>
       <c r="R132" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>77</v>
@@ -15455,10 +15458,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -15481,13 +15484,13 @@
         <v>77</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -15538,7 +15541,7 @@
         <v>77</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>78</v>
@@ -15550,7 +15553,7 @@
         <v>77</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>121</v>
@@ -15558,13 +15561,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D134" t="s" s="2">
         <v>77</v>
@@ -15589,14 +15592,14 @@
         <v>94</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>77</v>
@@ -15665,10 +15668,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -15768,10 +15771,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -15873,10 +15876,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -15916,7 +15919,7 @@
       </c>
       <c r="Q137" s="2"/>
       <c r="R137" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="S137" t="s" s="2">
         <v>77</v>
@@ -15978,10 +15981,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16004,13 +16007,13 @@
         <v>77</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -16061,7 +16064,7 @@
         <v>77</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>78</v>
@@ -16073,7 +16076,7 @@
         <v>77</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>121</v>
@@ -16081,10 +16084,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16124,7 +16127,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16186,10 +16189,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16212,13 +16215,13 @@
         <v>77</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16269,7 +16272,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>78</v>
@@ -16281,7 +16284,7 @@
         <v>77</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>121</v>
@@ -16289,10 +16292,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16332,7 +16335,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16394,10 +16397,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16420,13 +16423,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16477,7 +16480,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -16489,7 +16492,7 @@
         <v>77</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>121</v>
@@ -16497,13 +16500,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>77</v>
@@ -16528,14 +16531,14 @@
         <v>94</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -16604,10 +16607,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -16707,10 +16710,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -16812,10 +16815,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -16855,7 +16858,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -16917,10 +16920,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -16943,13 +16946,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17000,7 +17003,7 @@
         <v>77</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>78</v>
@@ -17012,7 +17015,7 @@
         <v>77</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>121</v>
@@ -17020,13 +17023,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17051,14 +17054,14 @@
         <v>94</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17127,10 +17130,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17230,10 +17233,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17335,10 +17338,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17378,7 +17381,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17440,10 +17443,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17466,13 +17469,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -17523,7 +17526,7 @@
         <v>77</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>78</v>
@@ -17535,7 +17538,7 @@
         <v>77</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>121</v>
@@ -17543,7 +17546,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>115</v>
@@ -17586,7 +17589,7 @@
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="S153" t="s" s="2">
         <v>77</v>
@@ -17648,7 +17651,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>123</v>
@@ -17674,13 +17677,13 @@
         <v>77</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -17731,7 +17734,7 @@
         <v>77</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>78</v>
@@ -17743,7 +17746,7 @@
         <v>77</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>121</v>
@@ -17856,10 +17859,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -17882,13 +17885,13 @@
         <v>77</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -17939,7 +17942,7 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>78</v>
@@ -17951,7 +17954,7 @@
         <v>77</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>121</v>
